--- a/src/uploads/planillaCostos/export (1).xlsx
+++ b/src/uploads/planillaCostos/export (1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="198">
   <si>
     <t>Año</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Mes</t>
   </si>
   <si>
-    <t>9</t>
+    <t>3</t>
   </si>
   <si>
     <t>Id Usuario</t>
@@ -46,25 +46,568 @@
     <t>Costo</t>
   </si>
   <si>
-    <t>Administrador</t>
-  </si>
-  <si>
-    <t>INGENIERO GESTION I D</t>
+    <t>Alex Molina</t>
+  </si>
+  <si>
+    <t>PROYECTISTA A</t>
+  </si>
+  <si>
+    <t>DIBUJO</t>
+  </si>
+  <si>
+    <t>CHILE</t>
+  </si>
+  <si>
+    <t>Angela Zuñiga</t>
+  </si>
+  <si>
+    <t>Enrique Pacheco</t>
+  </si>
+  <si>
+    <t>Juan Carlos Tapia</t>
+  </si>
+  <si>
+    <t>Karen Galdames</t>
+  </si>
+  <si>
+    <t>Karim Sanchez</t>
+  </si>
+  <si>
+    <t>Marcelo Valverde</t>
+  </si>
+  <si>
+    <t>Marco Garay Gamonal</t>
+  </si>
+  <si>
+    <t>Patricio Olmedo</t>
+  </si>
+  <si>
+    <t>Pedro Durán</t>
+  </si>
+  <si>
+    <t>Vanessa Millán</t>
+  </si>
+  <si>
+    <t>Paul Juillet</t>
+  </si>
+  <si>
+    <t>Rodrigo Cayupan</t>
+  </si>
+  <si>
+    <t>José Miguel Rivera</t>
+  </si>
+  <si>
+    <t>PROYECTISTA A2</t>
+  </si>
+  <si>
+    <t>María Isabel Arroyo</t>
+  </si>
+  <si>
+    <t>Orlando Jofre</t>
+  </si>
+  <si>
+    <t>Alan Rocha</t>
+  </si>
+  <si>
+    <t>Oscar Millapi</t>
+  </si>
+  <si>
+    <t>Alfonso Pizarro</t>
+  </si>
+  <si>
+    <t>PROYECTISTA A1</t>
+  </si>
+  <si>
+    <t>Cristian Oliva</t>
+  </si>
+  <si>
+    <t>Rodrigo Bustos</t>
+  </si>
+  <si>
+    <t>PROYECTISTA B2</t>
+  </si>
+  <si>
+    <t>Felipe Troncoso</t>
+  </si>
+  <si>
+    <t>Andrea Lobos</t>
+  </si>
+  <si>
+    <t>Juan Carlos Peña</t>
+  </si>
+  <si>
+    <t>Andrea Casajuana</t>
+  </si>
+  <si>
+    <t>Claudia Andrades</t>
+  </si>
+  <si>
+    <t>Charles Concha</t>
+  </si>
+  <si>
+    <t>Ximena Sanchez</t>
+  </si>
+  <si>
+    <t>Ariel Jamett</t>
+  </si>
+  <si>
+    <t>Cristian Díaz</t>
+  </si>
+  <si>
+    <t>PROYECTISTA B1</t>
+  </si>
+  <si>
+    <t>Cristian Valdenegro</t>
+  </si>
+  <si>
+    <t>Elías Morales</t>
+  </si>
+  <si>
+    <t>Ana Maria Cueva</t>
+  </si>
+  <si>
+    <t>PERU</t>
+  </si>
+  <si>
+    <t>Cristian Orrego</t>
+  </si>
+  <si>
+    <t>Cristian Galdames</t>
+  </si>
+  <si>
+    <t>DIBUJANTE A</t>
+  </si>
+  <si>
+    <t>Hernán Manríquez</t>
+  </si>
+  <si>
+    <t>Rodrigo Godoy</t>
+  </si>
+  <si>
+    <t>Jonathan Pino</t>
+  </si>
+  <si>
+    <t>José Núñez</t>
+  </si>
+  <si>
+    <t>Matias Mella</t>
+  </si>
+  <si>
+    <t>Sebastian Cifuentes</t>
+  </si>
+  <si>
+    <t>Leonardo Rubilar</t>
+  </si>
+  <si>
+    <t>Franz Arzabe</t>
+  </si>
+  <si>
+    <t>Juan Carlos Barzola</t>
+  </si>
+  <si>
+    <t>María José Aguilera</t>
+  </si>
+  <si>
+    <t>DIBUJANTE B</t>
+  </si>
+  <si>
+    <t>Albert Santis</t>
+  </si>
+  <si>
+    <t>Sebastián Alvear</t>
+  </si>
+  <si>
+    <t>Ignacio Guíñez</t>
+  </si>
+  <si>
+    <t>Catalina Marin</t>
+  </si>
+  <si>
+    <t>Mirko Vasquez</t>
+  </si>
+  <si>
+    <t>Sebastian Saez</t>
+  </si>
+  <si>
+    <t>Nicolas Encina</t>
+  </si>
+  <si>
+    <t>Sandra Zuñiga</t>
+  </si>
+  <si>
+    <t>Marcos Garay Soto</t>
+  </si>
+  <si>
+    <t>Angelo Aquino</t>
+  </si>
+  <si>
+    <t>Giorgio Lara</t>
+  </si>
+  <si>
+    <t>Julia Tarrillo</t>
+  </si>
+  <si>
+    <t>Jessica Barbosa</t>
+  </si>
+  <si>
+    <t>Juan Andrés Ramírez</t>
+  </si>
+  <si>
+    <t>INGENIERO SOPORTE</t>
+  </si>
+  <si>
+    <t>INFORMATICA.</t>
+  </si>
+  <si>
+    <t>Jonathan Zuñiga</t>
+  </si>
+  <si>
+    <t>Luis Rojas</t>
+  </si>
+  <si>
+    <t>Carlos Tello</t>
+  </si>
+  <si>
+    <t>Yanely Isabel Moreno Rivas</t>
+  </si>
+  <si>
+    <t>Documentos RLE</t>
+  </si>
+  <si>
+    <t>ASISTENTE PLOTTER</t>
+  </si>
+  <si>
+    <t>PLOTTERS</t>
+  </si>
+  <si>
+    <t>Erika Gonzalez Vilchez</t>
+  </si>
+  <si>
+    <t>Genesis Gabriela Rausseo La Greca</t>
+  </si>
+  <si>
+    <t>Felipe Concha</t>
+  </si>
+  <si>
+    <t>Mauricio Peña y Lillo</t>
+  </si>
+  <si>
+    <t>INGENIERO E</t>
+  </si>
+  <si>
+    <t>INGENIERIA</t>
+  </si>
+  <si>
+    <t>Pablo Rojas</t>
+  </si>
+  <si>
+    <t>Francisco Jimenez</t>
+  </si>
+  <si>
+    <t>Julio León</t>
+  </si>
+  <si>
+    <t>Jose Hernandez</t>
+  </si>
+  <si>
+    <t>Tomás Bravo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing </t>
+  </si>
+  <si>
+    <t>Diego Diaz</t>
+  </si>
+  <si>
+    <t>Eliezer Mondaca</t>
+  </si>
+  <si>
+    <t>Melissa Chaperon</t>
+  </si>
+  <si>
+    <t>Jorge Gomez Martinez</t>
+  </si>
+  <si>
+    <t>Lorena Huincahue</t>
+  </si>
+  <si>
+    <t>Pablo Rosenbaum</t>
+  </si>
+  <si>
+    <t>Kimberly Bastias</t>
+  </si>
+  <si>
+    <t>Alvaro Gonzalez</t>
+  </si>
+  <si>
+    <t>Felipe Moya</t>
+  </si>
+  <si>
+    <t>Syndy Alvarez</t>
+  </si>
+  <si>
+    <t>Maria Ignacia Destefani</t>
+  </si>
+  <si>
+    <t>Usuario Prueba</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>INGENIERO D</t>
+  </si>
+  <si>
+    <t>Eduardo Conejeros</t>
+  </si>
+  <si>
+    <t>Javier Moya</t>
+  </si>
+  <si>
+    <t>Alvaro Carboni</t>
+  </si>
+  <si>
+    <t>Rodrigo Oviedo</t>
+  </si>
+  <si>
+    <t>Guadalupe Astica</t>
+  </si>
+  <si>
+    <t>Felipe Ortega</t>
+  </si>
+  <si>
+    <t>Begoña Hamasaki</t>
+  </si>
+  <si>
+    <t>Marcela Becker</t>
+  </si>
+  <si>
+    <t>Felipe Saitua</t>
+  </si>
+  <si>
+    <t>Eduardo Soto</t>
+  </si>
+  <si>
+    <t>Eduardo Bedecarratz</t>
+  </si>
+  <si>
+    <t>Rodrigo Plaza</t>
+  </si>
+  <si>
+    <t>Ivan Caceres</t>
+  </si>
+  <si>
+    <t>Leonel Peralta</t>
+  </si>
+  <si>
+    <t>Carlos Estay</t>
+  </si>
+  <si>
+    <t>INGENIERO C</t>
+  </si>
+  <si>
+    <t>Cristián González</t>
+  </si>
+  <si>
+    <t>Felipe Guerra</t>
+  </si>
+  <si>
+    <t>Maria Francisca Lagos</t>
+  </si>
+  <si>
+    <t>Mauricio Reyes</t>
+  </si>
+  <si>
+    <t>Francisco Milla</t>
+  </si>
+  <si>
+    <t>Joaquín Acosta</t>
+  </si>
+  <si>
+    <t>Pablo Polanco</t>
+  </si>
+  <si>
+    <t>Angela Aparcana</t>
+  </si>
+  <si>
+    <t>Jose Antonio Letelier</t>
+  </si>
+  <si>
+    <t>Matias Morral</t>
+  </si>
+  <si>
+    <t>Diego Vargas</t>
+  </si>
+  <si>
+    <t>Jorge Bustos</t>
+  </si>
+  <si>
+    <t>Adriel Ramos</t>
+  </si>
+  <si>
+    <t>Katherine Gentina</t>
+  </si>
+  <si>
+    <t>INGENIERO B</t>
+  </si>
+  <si>
+    <t>Francisco Cabezas</t>
+  </si>
+  <si>
+    <t>Eduardo Lopez</t>
+  </si>
+  <si>
+    <t>Jorge Alfaro</t>
+  </si>
+  <si>
+    <t>Carlos Henriquez</t>
+  </si>
+  <si>
+    <t>Jaime Molina</t>
+  </si>
+  <si>
+    <t>Carlos F. Castro C.</t>
+  </si>
+  <si>
+    <t>JEFE DE PROYECTO</t>
+  </si>
+  <si>
+    <t>Carolina Romo</t>
+  </si>
+  <si>
+    <t>Errol Holmberg</t>
+  </si>
+  <si>
+    <t>Francisco Cordero</t>
+  </si>
+  <si>
+    <t>Javier Fernández</t>
+  </si>
+  <si>
+    <t>Jorge Tobar</t>
+  </si>
+  <si>
+    <t>José Allende</t>
+  </si>
+  <si>
+    <t>Marcelo Sandoval</t>
+  </si>
+  <si>
+    <t>Marianne Küpfer</t>
+  </si>
+  <si>
+    <t>Nicolás Maldonado</t>
+  </si>
+  <si>
+    <t>Paula Silva</t>
+  </si>
+  <si>
+    <t>Ricardo Berrios</t>
+  </si>
+  <si>
+    <t>Alejandro Brito</t>
+  </si>
+  <si>
+    <t>Mauricio Figueroa</t>
+  </si>
+  <si>
+    <t>Humberto Cabrera</t>
+  </si>
+  <si>
+    <t>Aucan Pedroso</t>
+  </si>
+  <si>
+    <t>Sistema Gestion</t>
+  </si>
+  <si>
+    <t>Patricio Apiolaza</t>
+  </si>
+  <si>
+    <t>Juan Mendoza</t>
+  </si>
+  <si>
+    <t>René Lagos</t>
+  </si>
+  <si>
+    <t>GERENTE GENERAL</t>
+  </si>
+  <si>
+    <t>GERENCIA</t>
+  </si>
+  <si>
+    <t>Claudio Gahona</t>
+  </si>
+  <si>
+    <t>Gonzalo Arias</t>
+  </si>
+  <si>
+    <t>DIRECTOR DE PROYECTO</t>
+  </si>
+  <si>
+    <t>Luis De la Fuente</t>
+  </si>
+  <si>
+    <t>Simón Sanhueza</t>
+  </si>
+  <si>
+    <t>Karina Carbajal</t>
+  </si>
+  <si>
+    <t>Eduardo González</t>
+  </si>
+  <si>
+    <t>DIRECTOR DE AREA</t>
   </si>
   <si>
     <t>I+D</t>
   </si>
   <si>
-    <t>PERU</t>
-  </si>
-  <si>
-    <t>Generico 1</t>
-  </si>
-  <si>
-    <t>CHILE</t>
-  </si>
-  <si>
-    <t>Generico 2</t>
+    <t>Ricardo Rojas</t>
+  </si>
+  <si>
+    <t>Marjorie Pino</t>
+  </si>
+  <si>
+    <t>MODELADOR BIM</t>
+  </si>
+  <si>
+    <t>Arturo Peña</t>
+  </si>
+  <si>
+    <t>Gonzalo Peñaloza</t>
+  </si>
+  <si>
+    <t>INGENIERO DE DESARROLLO</t>
+  </si>
+  <si>
+    <t>David Benites</t>
+  </si>
+  <si>
+    <t>Ignacio Robles</t>
+  </si>
+  <si>
+    <t>Macarena Letelier</t>
+  </si>
+  <si>
+    <t>DIBUJANTE C</t>
+  </si>
+  <si>
+    <t>Ruth Pichiñan Muñoz</t>
+  </si>
+  <si>
+    <t>Camila Gomez</t>
+  </si>
+  <si>
+    <t>DIBUJANTE TRAINEE</t>
+  </si>
+  <si>
+    <t>Alejandro Soto</t>
+  </si>
+  <si>
+    <t>Rodrigo Alvarado</t>
+  </si>
+  <si>
+    <t>INGENIERO PROYECTO</t>
   </si>
 </sst>
 </file>
@@ -88,7 +631,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -96,28 +639,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,19 +984,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:G164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G6" sqref="G6:G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -489,83 +1015,3203 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1">
-        <v>12000</v>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>261</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>262</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>211</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>144</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>175</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>101</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>118</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>77</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>93</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>141</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>147</v>
+      </c>
+      <c r="C59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>162</v>
+      </c>
+      <c r="C60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>163</v>
+      </c>
+      <c r="C61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>191</v>
+      </c>
+      <c r="C62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>197</v>
+      </c>
+      <c r="C63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>57</v>
+      </c>
+      <c r="C64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>95</v>
+      </c>
+      <c r="C65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>115</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>186</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>167</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" t="s">
+        <v>87</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>169</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>183</v>
+      </c>
+      <c r="C71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>214</v>
+      </c>
+      <c r="C72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" t="s">
+        <v>93</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" t="s">
+        <v>93</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>140</v>
+      </c>
+      <c r="C75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" t="s">
+        <v>93</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>159</v>
+      </c>
+      <c r="C76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" t="s">
+        <v>50</v>
+      </c>
+      <c r="G76">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" t="s">
+        <v>92</v>
+      </c>
+      <c r="E77" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78" t="s">
+        <v>93</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>173</v>
+      </c>
+      <c r="C79" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" t="s">
+        <v>92</v>
+      </c>
+      <c r="E79" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>179</v>
+      </c>
+      <c r="C80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" t="s">
+        <v>92</v>
+      </c>
+      <c r="E80" t="s">
+        <v>93</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>180</v>
+      </c>
+      <c r="C81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" t="s">
+        <v>93</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>187</v>
+      </c>
+      <c r="C82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" t="s">
+        <v>92</v>
+      </c>
+      <c r="E82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>188</v>
+      </c>
+      <c r="C83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" t="s">
+        <v>93</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>189</v>
+      </c>
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" t="s">
+        <v>93</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>190</v>
+      </c>
+      <c r="C85" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" t="s">
+        <v>93</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>193</v>
+      </c>
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" t="s">
+        <v>93</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>194</v>
+      </c>
+      <c r="C87" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" t="s">
+        <v>93</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>196</v>
+      </c>
+      <c r="C88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" t="s">
+        <v>93</v>
+      </c>
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>198</v>
+      </c>
+      <c r="C89" t="s">
+        <v>109</v>
+      </c>
+      <c r="D89" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" t="s">
+        <v>93</v>
+      </c>
+      <c r="F89" t="s">
+        <v>50</v>
+      </c>
+      <c r="G89">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>199</v>
+      </c>
+      <c r="C90" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>219</v>
+      </c>
+      <c r="C91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" t="s">
+        <v>93</v>
+      </c>
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>220</v>
+      </c>
+      <c r="C92" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>112</v>
+      </c>
+      <c r="D93" t="s">
+        <v>113</v>
+      </c>
+      <c r="E93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" t="s">
+        <v>93</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>26</v>
+      </c>
+      <c r="C95" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" t="s">
+        <v>113</v>
+      </c>
+      <c r="E95" t="s">
+        <v>93</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>83</v>
+      </c>
+      <c r="C96" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" t="s">
+        <v>113</v>
+      </c>
+      <c r="E96" t="s">
+        <v>93</v>
+      </c>
+      <c r="F96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E97" t="s">
+        <v>93</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" t="s">
+        <v>93</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>129</v>
+      </c>
+      <c r="C99" t="s">
+        <v>119</v>
+      </c>
+      <c r="D99" t="s">
+        <v>113</v>
+      </c>
+      <c r="E99" t="s">
+        <v>93</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>145</v>
+      </c>
+      <c r="C100" t="s">
+        <v>120</v>
+      </c>
+      <c r="D100" t="s">
+        <v>113</v>
+      </c>
+      <c r="E100" t="s">
+        <v>93</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>146</v>
+      </c>
+      <c r="C101" t="s">
+        <v>121</v>
+      </c>
+      <c r="D101" t="s">
+        <v>113</v>
+      </c>
+      <c r="E101" t="s">
+        <v>93</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>164</v>
+      </c>
+      <c r="C102" t="s">
+        <v>122</v>
+      </c>
+      <c r="D102" t="s">
+        <v>113</v>
+      </c>
+      <c r="E102" t="s">
+        <v>93</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>166</v>
+      </c>
+      <c r="C103" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103" t="s">
+        <v>113</v>
+      </c>
+      <c r="E103" t="s">
+        <v>93</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>170</v>
+      </c>
+      <c r="C104" t="s">
+        <v>124</v>
+      </c>
+      <c r="D104" t="s">
+        <v>113</v>
+      </c>
+      <c r="E104" t="s">
+        <v>93</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>172</v>
+      </c>
+      <c r="C105" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" t="s">
+        <v>113</v>
+      </c>
+      <c r="E105" t="s">
+        <v>93</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>177</v>
+      </c>
+      <c r="C106" t="s">
+        <v>126</v>
+      </c>
+      <c r="D106" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" t="s">
+        <v>93</v>
+      </c>
+      <c r="F106" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>178</v>
+      </c>
+      <c r="C107" t="s">
+        <v>127</v>
+      </c>
+      <c r="D107" t="s">
+        <v>113</v>
+      </c>
+      <c r="E107" t="s">
+        <v>93</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>128</v>
+      </c>
+      <c r="D108" t="s">
+        <v>129</v>
+      </c>
+      <c r="E108" t="s">
+        <v>93</v>
+      </c>
+      <c r="F108" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>130</v>
+      </c>
+      <c r="D109" t="s">
+        <v>129</v>
+      </c>
+      <c r="E109" t="s">
+        <v>93</v>
+      </c>
+      <c r="F109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>19</v>
+      </c>
+      <c r="C110" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" t="s">
+        <v>129</v>
+      </c>
+      <c r="E110" t="s">
+        <v>93</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>20</v>
+      </c>
+      <c r="C111" t="s">
+        <v>132</v>
+      </c>
+      <c r="D111" t="s">
+        <v>129</v>
+      </c>
+      <c r="E111" t="s">
+        <v>93</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>42</v>
+      </c>
+      <c r="C112" t="s">
+        <v>133</v>
+      </c>
+      <c r="D112" t="s">
+        <v>129</v>
+      </c>
+      <c r="E112" t="s">
+        <v>93</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>68</v>
+      </c>
+      <c r="C113" t="s">
+        <v>134</v>
+      </c>
+      <c r="D113" t="s">
+        <v>129</v>
+      </c>
+      <c r="E113" t="s">
+        <v>93</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>78</v>
+      </c>
+      <c r="C114" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114" t="s">
+        <v>129</v>
+      </c>
+      <c r="E114" t="s">
+        <v>93</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>102</v>
+      </c>
+      <c r="C115" t="s">
+        <v>136</v>
+      </c>
+      <c r="D115" t="s">
+        <v>129</v>
+      </c>
+      <c r="E115" t="s">
+        <v>93</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>117</v>
+      </c>
+      <c r="C116" t="s">
+        <v>137</v>
+      </c>
+      <c r="D116" t="s">
+        <v>129</v>
+      </c>
+      <c r="E116" t="s">
+        <v>93</v>
+      </c>
+      <c r="F116" t="s">
+        <v>50</v>
+      </c>
+      <c r="G116">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>128</v>
+      </c>
+      <c r="C117" t="s">
+        <v>138</v>
+      </c>
+      <c r="D117" t="s">
+        <v>129</v>
+      </c>
+      <c r="E117" t="s">
+        <v>93</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>137</v>
+      </c>
+      <c r="C118" t="s">
+        <v>139</v>
+      </c>
+      <c r="D118" t="s">
+        <v>129</v>
+      </c>
+      <c r="E118" t="s">
+        <v>93</v>
+      </c>
+      <c r="F118" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>138</v>
+      </c>
+      <c r="C119" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" t="s">
+        <v>129</v>
+      </c>
+      <c r="E119" t="s">
+        <v>93</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>148</v>
+      </c>
+      <c r="C120" t="s">
+        <v>141</v>
+      </c>
+      <c r="D120" t="s">
+        <v>129</v>
+      </c>
+      <c r="E120" t="s">
+        <v>93</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>205</v>
+      </c>
+      <c r="C121" t="s">
+        <v>142</v>
+      </c>
+      <c r="D121" t="s">
+        <v>129</v>
+      </c>
+      <c r="E121" t="s">
+        <v>93</v>
+      </c>
+      <c r="F121" t="s">
+        <v>50</v>
+      </c>
+      <c r="G121">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>33</v>
+      </c>
+      <c r="C122" t="s">
+        <v>143</v>
+      </c>
+      <c r="D122" t="s">
+        <v>144</v>
+      </c>
+      <c r="E122" t="s">
+        <v>93</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>87</v>
+      </c>
+      <c r="C123" t="s">
+        <v>145</v>
+      </c>
+      <c r="D123" t="s">
+        <v>144</v>
+      </c>
+      <c r="E123" t="s">
+        <v>93</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>97</v>
+      </c>
+      <c r="C124" t="s">
+        <v>146</v>
+      </c>
+      <c r="D124" t="s">
+        <v>144</v>
+      </c>
+      <c r="E124" t="s">
+        <v>93</v>
+      </c>
+      <c r="F124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>110</v>
+      </c>
+      <c r="C125" t="s">
+        <v>147</v>
+      </c>
+      <c r="D125" t="s">
+        <v>144</v>
+      </c>
+      <c r="E125" t="s">
+        <v>93</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>148</v>
+      </c>
+      <c r="D126" t="s">
+        <v>144</v>
+      </c>
+      <c r="E126" t="s">
+        <v>93</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>132</v>
+      </c>
+      <c r="C127" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127" t="s">
+        <v>144</v>
+      </c>
+      <c r="E127" t="s">
+        <v>93</v>
+      </c>
+      <c r="F127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>150</v>
+      </c>
+      <c r="D128" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" t="s">
+        <v>93</v>
+      </c>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>152</v>
+      </c>
+      <c r="D129" t="s">
+        <v>151</v>
+      </c>
+      <c r="E129" t="s">
+        <v>93</v>
+      </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>18</v>
+      </c>
+      <c r="C130" t="s">
+        <v>153</v>
+      </c>
+      <c r="D130" t="s">
+        <v>151</v>
+      </c>
+      <c r="E130" t="s">
+        <v>93</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>21</v>
+      </c>
+      <c r="C131" t="s">
+        <v>154</v>
+      </c>
+      <c r="D131" t="s">
+        <v>151</v>
+      </c>
+      <c r="E131" t="s">
+        <v>93</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>25</v>
+      </c>
+      <c r="C132" t="s">
+        <v>155</v>
+      </c>
+      <c r="D132" t="s">
+        <v>151</v>
+      </c>
+      <c r="E132" t="s">
+        <v>93</v>
+      </c>
+      <c r="F132" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>27</v>
+      </c>
+      <c r="C133" t="s">
+        <v>156</v>
+      </c>
+      <c r="D133" t="s">
+        <v>151</v>
+      </c>
+      <c r="E133" t="s">
+        <v>93</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>28</v>
+      </c>
+      <c r="C134" t="s">
+        <v>157</v>
+      </c>
+      <c r="D134" t="s">
+        <v>151</v>
+      </c>
+      <c r="E134" t="s">
+        <v>93</v>
+      </c>
+      <c r="F134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>35</v>
+      </c>
+      <c r="C135" t="s">
+        <v>158</v>
+      </c>
+      <c r="D135" t="s">
+        <v>151</v>
+      </c>
+      <c r="E135" t="s">
+        <v>93</v>
+      </c>
+      <c r="F135" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>39</v>
+      </c>
+      <c r="C136" t="s">
+        <v>159</v>
+      </c>
+      <c r="D136" t="s">
+        <v>151</v>
+      </c>
+      <c r="E136" t="s">
+        <v>93</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>43</v>
+      </c>
+      <c r="C137" t="s">
+        <v>160</v>
+      </c>
+      <c r="D137" t="s">
+        <v>151</v>
+      </c>
+      <c r="E137" t="s">
+        <v>93</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>46</v>
+      </c>
+      <c r="C138" t="s">
+        <v>161</v>
+      </c>
+      <c r="D138" t="s">
+        <v>151</v>
+      </c>
+      <c r="E138" t="s">
+        <v>93</v>
+      </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>48</v>
+      </c>
+      <c r="C139" t="s">
+        <v>162</v>
+      </c>
+      <c r="D139" t="s">
+        <v>151</v>
+      </c>
+      <c r="E139" t="s">
+        <v>93</v>
+      </c>
+      <c r="F139" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>73</v>
+      </c>
+      <c r="C140" t="s">
+        <v>163</v>
+      </c>
+      <c r="D140" t="s">
+        <v>151</v>
+      </c>
+      <c r="E140" t="s">
+        <v>93</v>
+      </c>
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>81</v>
+      </c>
+      <c r="C141" t="s">
+        <v>164</v>
+      </c>
+      <c r="D141" t="s">
+        <v>151</v>
+      </c>
+      <c r="E141" t="s">
+        <v>93</v>
+      </c>
+      <c r="F141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>107</v>
+      </c>
+      <c r="C142" t="s">
+        <v>165</v>
+      </c>
+      <c r="D142" t="s">
+        <v>151</v>
+      </c>
+      <c r="E142" t="s">
+        <v>93</v>
+      </c>
+      <c r="F142" t="s">
+        <v>50</v>
+      </c>
+      <c r="G142">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>113</v>
+      </c>
+      <c r="C143" t="s">
+        <v>166</v>
+      </c>
+      <c r="D143" t="s">
+        <v>151</v>
+      </c>
+      <c r="E143" t="s">
+        <v>93</v>
+      </c>
+      <c r="F143" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>127</v>
+      </c>
+      <c r="C144" t="s">
+        <v>167</v>
+      </c>
+      <c r="D144" t="s">
+        <v>151</v>
+      </c>
+      <c r="E144" t="s">
+        <v>93</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>174</v>
+      </c>
+      <c r="C145" t="s">
+        <v>168</v>
+      </c>
+      <c r="D145" t="s">
+        <v>151</v>
+      </c>
+      <c r="E145" t="s">
+        <v>93</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>192</v>
+      </c>
+      <c r="C146" t="s">
+        <v>169</v>
+      </c>
+      <c r="D146" t="s">
+        <v>151</v>
+      </c>
+      <c r="E146" t="s">
+        <v>93</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>54</v>
+      </c>
+      <c r="C147" t="s">
+        <v>170</v>
+      </c>
+      <c r="D147" t="s">
+        <v>171</v>
+      </c>
+      <c r="E147" t="s">
+        <v>172</v>
+      </c>
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>114</v>
+      </c>
+      <c r="C148" t="s">
+        <v>173</v>
+      </c>
+      <c r="D148" t="s">
+        <v>171</v>
+      </c>
+      <c r="E148" t="s">
+        <v>172</v>
+      </c>
+      <c r="F148" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>22</v>
+      </c>
+      <c r="C149" t="s">
+        <v>174</v>
+      </c>
+      <c r="D149" t="s">
+        <v>175</v>
+      </c>
+      <c r="E149" t="s">
+        <v>172</v>
+      </c>
+      <c r="F149" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>34</v>
+      </c>
+      <c r="C150" t="s">
+        <v>176</v>
+      </c>
+      <c r="D150" t="s">
+        <v>175</v>
+      </c>
+      <c r="E150" t="s">
+        <v>172</v>
+      </c>
+      <c r="F150" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>52</v>
+      </c>
+      <c r="C151" t="s">
+        <v>177</v>
+      </c>
+      <c r="D151" t="s">
+        <v>175</v>
+      </c>
+      <c r="E151" t="s">
+        <v>172</v>
+      </c>
+      <c r="F151" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>104</v>
+      </c>
+      <c r="C152" t="s">
+        <v>178</v>
+      </c>
+      <c r="D152" t="s">
+        <v>175</v>
+      </c>
+      <c r="E152" t="s">
+        <v>172</v>
+      </c>
+      <c r="F152" t="s">
+        <v>50</v>
+      </c>
+      <c r="G152">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B153">
         <v>15</v>
       </c>
-      <c r="G8" s="1">
-        <v>12000</v>
+      <c r="C153" t="s">
+        <v>179</v>
+      </c>
+      <c r="D153" t="s">
+        <v>180</v>
+      </c>
+      <c r="E153" t="s">
+        <v>181</v>
+      </c>
+      <c r="F153" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>49</v>
+      </c>
+      <c r="C154" t="s">
+        <v>182</v>
+      </c>
+      <c r="D154" t="s">
+        <v>180</v>
+      </c>
+      <c r="E154" t="s">
+        <v>181</v>
+      </c>
+      <c r="F154" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>41</v>
+      </c>
+      <c r="C155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D155" t="s">
+        <v>184</v>
+      </c>
+      <c r="E155" t="s">
+        <v>181</v>
+      </c>
+      <c r="F155" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>70</v>
+      </c>
+      <c r="C156" t="s">
+        <v>185</v>
+      </c>
+      <c r="D156" t="s">
+        <v>184</v>
+      </c>
+      <c r="E156" t="s">
+        <v>181</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>23</v>
+      </c>
+      <c r="C157" t="s">
+        <v>186</v>
+      </c>
+      <c r="D157" t="s">
+        <v>187</v>
+      </c>
+      <c r="E157" t="s">
+        <v>181</v>
+      </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>124</v>
+      </c>
+      <c r="C158" t="s">
+        <v>188</v>
+      </c>
+      <c r="D158" t="s">
+        <v>187</v>
+      </c>
+      <c r="E158" t="s">
+        <v>181</v>
+      </c>
+      <c r="F158" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>195</v>
+      </c>
+      <c r="C159" t="s">
+        <v>189</v>
+      </c>
+      <c r="D159" t="s">
+        <v>187</v>
+      </c>
+      <c r="E159" t="s">
+        <v>181</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>131</v>
+      </c>
+      <c r="C160" t="s">
+        <v>190</v>
+      </c>
+      <c r="D160" t="s">
+        <v>191</v>
+      </c>
+      <c r="E160" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>209</v>
+      </c>
+      <c r="C161" t="s">
+        <v>192</v>
+      </c>
+      <c r="D161" t="s">
+        <v>191</v>
+      </c>
+      <c r="E161" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>133</v>
+      </c>
+      <c r="C162" t="s">
+        <v>193</v>
+      </c>
+      <c r="D162" t="s">
+        <v>194</v>
+      </c>
+      <c r="E162" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>143</v>
+      </c>
+      <c r="C163" t="s">
+        <v>195</v>
+      </c>
+      <c r="D163" t="s">
+        <v>194</v>
+      </c>
+      <c r="E163" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>142</v>
+      </c>
+      <c r="C164" t="s">
+        <v>196</v>
+      </c>
+      <c r="D164" t="s">
+        <v>197</v>
+      </c>
+      <c r="E164" t="s">
+        <v>93</v>
+      </c>
+      <c r="F164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
